--- a/old_database/crypto/s1cDNASample/s1cDNASample_1028.xlsx
+++ b/old_database/crypto/s1cDNASample/s1cDNASample_1028.xlsx
@@ -34,7 +34,7 @@
     <t>08.30.13</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_1028</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/s1cDNASample/s1cDNASample_1028.xlsx
+++ b/old_database/crypto/s1cDNASample/s1cDNASample_1028.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="8">
   <si>
     <t>rnaDate</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>s1cDNADate</t>
+  </si>
+  <si>
+    <t>s1cDNAPreparer</t>
   </si>
   <si>
     <t>s1cDNASampleNumber</t>
@@ -392,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,259 +417,307 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
         <v>15</v>
       </c>
     </row>

--- a/old_database/crypto/s1cDNASample/s1cDNASample_1028.xlsx
+++ b/old_database/crypto/s1cDNASample/s1cDNASample_1028.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">s1cDNASampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">s1cDNAProtocol </t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">08.30.13</t>
@@ -169,12 +169,14 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G16"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
